--- a/uploads/classes/s2.xlsx
+++ b/uploads/classes/s2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project final\uploads\classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F32F72-7448-419A-B847-784A14760399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC19B32-2D93-4BCE-B93B-F4EBAE87CD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24998239-70B8-4F0C-BB42-7DD571B4F413}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/uploads/classes/s2.xlsx
+++ b/uploads/classes/s2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project final\uploads\classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\OneDrive\Documents\EduTrackrr.github.io-File Upload and sql update working (1)\EduTrackrr.github.io-File Upload and sql update working\uploads\classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC19B32-2D93-4BCE-B93B-F4EBAE87CD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6C06A0-947C-42AA-9911-72C222C9A72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24998239-70B8-4F0C-BB42-7DD571B4F413}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="142">
   <si>
     <t>UID</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Engg_Physics_grade</t>
   </si>
   <si>
-    <t>Engg_ Mechanics_Marks</t>
-  </si>
-  <si>
     <t>Engg_Mechanics_grade</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Basics_of_Electronic_and_Electricals_Marks</t>
   </si>
   <si>
-    <t>Basics_ of_Electronic_and_Electricals_grade</t>
-  </si>
-  <si>
     <t>Programming_in_C_Marks</t>
   </si>
   <si>
@@ -183,7 +177,289 @@
     <t>Electrical_electronic_lab_mark</t>
   </si>
   <si>
-    <t>Electrical_electronics_lab_grade</t>
+    <t>U2104011</t>
+  </si>
+  <si>
+    <t>U2104012</t>
+  </si>
+  <si>
+    <t>U2104013</t>
+  </si>
+  <si>
+    <t>U2104014</t>
+  </si>
+  <si>
+    <t>U2104015</t>
+  </si>
+  <si>
+    <t>U2104016</t>
+  </si>
+  <si>
+    <t>U2104017</t>
+  </si>
+  <si>
+    <t>U2104018</t>
+  </si>
+  <si>
+    <t>U2104019</t>
+  </si>
+  <si>
+    <t>U2104020</t>
+  </si>
+  <si>
+    <t>U2104021</t>
+  </si>
+  <si>
+    <t>U2104022</t>
+  </si>
+  <si>
+    <t>U2104023</t>
+  </si>
+  <si>
+    <t>U2104024</t>
+  </si>
+  <si>
+    <t>U2104025</t>
+  </si>
+  <si>
+    <t>U2104026</t>
+  </si>
+  <si>
+    <t>U2104027</t>
+  </si>
+  <si>
+    <t>U2104028</t>
+  </si>
+  <si>
+    <t>U2104029</t>
+  </si>
+  <si>
+    <t>U2104030</t>
+  </si>
+  <si>
+    <t>U2104031</t>
+  </si>
+  <si>
+    <t>U2104032</t>
+  </si>
+  <si>
+    <t>U2104033</t>
+  </si>
+  <si>
+    <t>U2104034</t>
+  </si>
+  <si>
+    <t>U2104035</t>
+  </si>
+  <si>
+    <t>U2104036</t>
+  </si>
+  <si>
+    <t>U2104037</t>
+  </si>
+  <si>
+    <t>U2104038</t>
+  </si>
+  <si>
+    <t>U2104039</t>
+  </si>
+  <si>
+    <t>U2104040</t>
+  </si>
+  <si>
+    <t>U2104041</t>
+  </si>
+  <si>
+    <t>U2104042</t>
+  </si>
+  <si>
+    <t>U2104043</t>
+  </si>
+  <si>
+    <t>U2104044</t>
+  </si>
+  <si>
+    <t>U2104045</t>
+  </si>
+  <si>
+    <t>U2104046</t>
+  </si>
+  <si>
+    <t>U2104047</t>
+  </si>
+  <si>
+    <t>U2104048</t>
+  </si>
+  <si>
+    <t>U2104049</t>
+  </si>
+  <si>
+    <t>U2104050</t>
+  </si>
+  <si>
+    <t>U2104051</t>
+  </si>
+  <si>
+    <t>U2104052</t>
+  </si>
+  <si>
+    <t>U2104053</t>
+  </si>
+  <si>
+    <t>U2104054</t>
+  </si>
+  <si>
+    <t>U2104055</t>
+  </si>
+  <si>
+    <t>Athira Das</t>
+  </si>
+  <si>
+    <t>Balu Venugopal</t>
+  </si>
+  <si>
+    <t>Bindu Haridas</t>
+  </si>
+  <si>
+    <t>Chitra Ramachandran</t>
+  </si>
+  <si>
+    <t>Dhanush Pillai</t>
+  </si>
+  <si>
+    <t>Dhanya Narayanan</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>Divya Chandran</t>
+  </si>
+  <si>
+    <t>Edwin George</t>
+  </si>
+  <si>
+    <t>Fathima Rahman</t>
+  </si>
+  <si>
+    <t>Gautham Kurup</t>
+  </si>
+  <si>
+    <t>Gayathri Rajesh</t>
+  </si>
+  <si>
+    <t>Hari Kumar</t>
+  </si>
+  <si>
+    <t>Haritha Shaji</t>
+  </si>
+  <si>
+    <t>Indu Prem</t>
+  </si>
+  <si>
+    <t>Jagan Mohan</t>
+  </si>
+  <si>
+    <t>Jaya Dev</t>
+  </si>
+  <si>
+    <t>Jobin Mathew</t>
+  </si>
+  <si>
+    <t>Jyothi Sivan</t>
+  </si>
+  <si>
+    <t>Karthik Krishnan</t>
+  </si>
+  <si>
+    <t>Keerthi Ajith</t>
+  </si>
+  <si>
+    <t>Lakshmi Nair</t>
+  </si>
+  <si>
+    <t>Mahesh Pradeep</t>
+  </si>
+  <si>
+    <t>Manju Rani</t>
+  </si>
+  <si>
+    <t>Meera Rajan</t>
+  </si>
+  <si>
+    <t>Nandana Varma</t>
+  </si>
+  <si>
+    <t>Naveen John</t>
+  </si>
+  <si>
+    <t>Neethu Das</t>
+  </si>
+  <si>
+    <t>Nikhil Babu</t>
+  </si>
+  <si>
+    <t>Nimisha Sreekumar</t>
+  </si>
+  <si>
+    <t>Pavan Menon</t>
+  </si>
+  <si>
+    <t>Priya Balachandran</t>
+  </si>
+  <si>
+    <t>Rahul Govind</t>
+  </si>
+  <si>
+    <t>Rajesh Mohan</t>
+  </si>
+  <si>
+    <t>Ramya Kumar</t>
+  </si>
+  <si>
+    <t>Renjith Ramesh</t>
+  </si>
+  <si>
+    <t>Reshma Mohan</t>
+  </si>
+  <si>
+    <t>Riya Haridas</t>
+  </si>
+  <si>
+    <t>Rohit Krishna</t>
+  </si>
+  <si>
+    <t>Roshan Prem</t>
+  </si>
+  <si>
+    <t>Sandra Suresh</t>
+  </si>
+  <si>
+    <t>Sanjay Babu</t>
+  </si>
+  <si>
+    <t>Sanu Raj</t>
+  </si>
+  <si>
+    <t>Saranya Nair</t>
+  </si>
+  <si>
+    <t>Shaji Varghese</t>
+  </si>
+  <si>
+    <t>Shilpa Ramesh</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Engg_Mechanics_Marks</t>
+  </si>
+  <si>
+    <t>Basics_of_Electronic_and_Electricals_grade</t>
+  </si>
+  <si>
+    <t>Electrical_electronic_lab_grade</t>
   </si>
 </sst>
 </file>
@@ -547,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3467A2-5A48-496A-A3E4-2C9E680ABC72}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,40 +883,40 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>4</v>
@@ -666,58 +942,58 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>85</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>82</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2">
         <v>88</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="Q2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="2">
+        <v>80</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2">
         <v>78</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2">
-        <v>92</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2">
-        <v>70</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="2">
-        <v>82</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="2">
-        <v>75</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="2">
-        <v>85</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2" s="2">
-        <v>8.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="W2" s="2">
-        <v>8.1999999999999993</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -737,58 +1013,58 @@
         <v>14</v>
       </c>
       <c r="F3" s="2">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2">
+        <v>70</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
+        <v>60</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2">
         <v>75</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="O3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2">
         <v>70</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2">
-        <v>82</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2">
-        <v>80</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="2">
-        <v>85</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="2">
-        <v>78</v>
-      </c>
       <c r="Q3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R3" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T3" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="V3" s="2">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="W3" s="2">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -811,55 +1087,55 @@
         <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="2">
         <v>65</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2">
-        <v>68</v>
-      </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="2">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="N4" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="P4" s="2">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="R4" s="2">
+        <v>58</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="2">
         <v>60</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="2">
-        <v>67</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="V4" s="2">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="W4" s="2">
-        <v>7</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -921,16 +1197,16 @@
         <v>10</v>
       </c>
       <c r="T5" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="V5" s="2">
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="W5" s="2">
-        <v>9.4</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -962,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>10</v>
@@ -974,34 +1250,34 @@
         <v>11</v>
       </c>
       <c r="N6" s="2">
+        <v>78</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="2">
         <v>77</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="2">
-        <v>79</v>
-      </c>
       <c r="Q6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R6" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="2">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V6" s="2">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="W6" s="2">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1021,7 +1297,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -1030,13 +1306,13 @@
         <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2">
         <v>88</v>
@@ -1045,16 +1321,16 @@
         <v>10</v>
       </c>
       <c r="N7" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P7" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R7" s="2">
         <v>85</v>
@@ -1063,16 +1339,16 @@
         <v>10</v>
       </c>
       <c r="T7" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="V7" s="2">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="W7" s="2">
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1095,7 +1371,7 @@
         <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2">
         <v>60</v>
@@ -1107,43 +1383,43 @@
         <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="L8" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="N8" s="2">
         <v>60</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="P8" s="2">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R8" s="2">
+        <v>60</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="2">
         <v>58</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="2">
-        <v>62</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="2">
-        <v>60</v>
-      </c>
       <c r="U8" s="2" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="V8" s="2">
-        <v>6.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="W8" s="2">
-        <v>6.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1163,13 +1439,13 @@
         <v>28</v>
       </c>
       <c r="F9" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>10</v>
@@ -1181,40 +1457,40 @@
         <v>10</v>
       </c>
       <c r="L9" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N9" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P9" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R9" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T9" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="V9" s="2">
-        <v>9.3000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="W9" s="2">
-        <v>9.1999999999999993</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1234,58 +1510,58 @@
         <v>30</v>
       </c>
       <c r="F10" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="2">
+        <v>70</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2">
         <v>72</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2">
+        <v>80</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="2">
         <v>70</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2">
-        <v>75</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="2">
         <v>68</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="2">
+        <v>80</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="2">
         <v>70</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" s="2">
-        <v>72</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T10" s="2">
-        <v>74</v>
-      </c>
       <c r="U10" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V10" s="2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="W10" s="2">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1305,59 +1581,3269 @@
         <v>32</v>
       </c>
       <c r="F11" s="2">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
         <v>85</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2">
-        <v>80</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2">
+        <v>70</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="2">
+        <v>75</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="2">
+        <v>80</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="2">
+        <v>81</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="2">
+        <v>83</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="W11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="2">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>74</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2">
+        <v>80</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2">
+        <v>76</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="2">
+        <v>85</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="2">
+        <v>82</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="2">
+        <v>70</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="W12" s="2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="2">
+        <v>75</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>60</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2">
+        <v>75</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="2">
+        <v>66</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="2">
+        <v>70</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="2">
+        <v>74</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="2">
+        <v>70</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="W13" s="2">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="2">
+        <v>92</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2">
+        <v>88</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>90</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="2">
+        <v>85</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2">
+        <v>87</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="2">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="2">
+        <v>85</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="2">
+        <v>88</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="W14" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2">
+        <v>75</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="2">
+        <v>70</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="2">
+        <v>72</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="2">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="2">
+        <v>77</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="2">
+        <v>82</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="W15" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="2">
+        <v>78</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2">
+        <v>80</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>84</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="2">
+        <v>79</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="2">
+        <v>76</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="2">
+        <v>82</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="2">
+        <v>75</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W16" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="2">
+        <v>85</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2">
+        <v>75</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <v>80</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="2">
+        <v>84</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="2">
+        <v>79</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="2">
+        <v>88</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="2">
+        <v>87</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V17" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="W17" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <v>85</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2">
+        <v>76</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="2">
+        <v>83</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="2">
+        <v>80</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="2">
+        <v>70</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="W18" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="2">
+        <v>72</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2">
+        <v>70</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2">
+        <v>75</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="2">
+        <v>80</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="2">
+        <v>78</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="2">
+        <v>74</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" s="2">
+        <v>72</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="W19" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="2">
+        <v>85</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>88</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
+        <v>80</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2">
+        <v>84</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="2">
+        <v>92</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="2">
+        <v>85</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="2">
         <v>86</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="U20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V20" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="W20" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="2">
+        <v>60</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2">
+        <v>58</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="2">
+        <v>65</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="2">
+        <v>62</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="2">
+        <v>66</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="2">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="2">
+        <v>60</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="2">
+        <v>65</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V21" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="W21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="2">
+        <v>75</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2">
+        <v>80</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="2">
+        <v>70</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="2">
+        <v>74</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="2">
+        <v>78</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="2">
+        <v>68</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" s="2">
+        <v>77</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="W22" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="2">
+        <v>90</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
+        <v>85</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
+        <v>88</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2">
+        <v>80</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="2">
+        <v>79</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="2">
         <v>82</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="Q23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="2">
+        <v>85</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="2">
+        <v>82</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V23" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W23" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="2">
+        <v>82</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2">
+        <v>85</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="2">
+        <v>70</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2">
+        <v>76</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="2">
+        <v>72</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="2">
+        <v>78</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" s="2">
+        <v>74</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V24" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="W24" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="2">
+        <v>85</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2">
+        <v>80</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="2">
+        <v>90</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="2">
+        <v>84</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="2">
+        <v>75</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="2">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="2">
+        <v>81</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25" s="2">
+        <v>88</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V25" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="W25" s="2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="2">
+        <v>65</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2">
+        <v>70</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2">
+        <v>68</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="2">
+        <v>75</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="2">
+        <v>68</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="2">
+        <v>77</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26" s="2">
+        <v>74</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="W26" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2">
+        <v>75</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2">
+        <v>80</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
+        <v>70</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="2">
+        <v>80</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="2">
+        <v>72</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" s="2">
+        <v>75</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="2">
+        <v>73</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V27" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="W27" s="2">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="2">
+        <v>82</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="2">
+        <v>84</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="2">
         <v>79</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="K28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2">
+        <v>70</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="2">
+        <v>83</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="2">
+        <v>77</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T28" s="2">
+        <v>78</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V28" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="W28" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="2">
+        <v>76</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2">
+        <v>75</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="2">
+        <v>80</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="2">
+        <v>78</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="2">
+        <v>74</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="2">
+        <v>82</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T29" s="2">
+        <v>78</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="W29" s="2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="2">
+        <v>78</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2">
+        <v>80</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="2">
+        <v>68</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="2">
+        <v>82</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" s="2">
+        <v>75</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="2">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" s="2">
+        <v>69</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" s="2">
+        <v>76</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V30" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="W30" s="2">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="2">
+        <v>82</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2">
+        <v>75</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
+        <v>90</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="2">
+        <v>80</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="2">
+        <v>85</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="2">
+        <v>92</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R31" s="2">
+        <v>86</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T31" s="2">
+        <v>83</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V31" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W31" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="2">
+        <v>80</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2">
+        <v>72</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
+        <v>75</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="2">
+        <v>84</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="2">
+        <v>88</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" s="2">
+        <v>76</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T32" s="2">
+        <v>85</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V32" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="W32" s="2">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="2">
+        <v>70</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2">
+        <v>74</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="2">
+        <v>78</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="2">
+        <v>70</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="2">
+        <v>85</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33" s="2">
+        <v>71</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T33" s="2">
+        <v>80</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V33" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="W33" s="2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="2">
+        <v>82</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2">
+        <v>80</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="2">
+        <v>77</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="2">
+        <v>74</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="2">
+        <v>79</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R34" s="2">
+        <v>80</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T34" s="2">
+        <v>83</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V34" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="W34" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="2">
+        <v>90</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="2">
+        <v>82</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="2">
+        <v>80</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="2">
+        <v>87</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P35" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" s="2">
+        <v>90</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="2">
+        <v>83</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V35" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="W35" s="2">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="2">
+        <v>67</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="2">
+        <v>58</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="2">
+        <v>72</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="2">
+        <v>64</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="2">
+        <v>65</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36" s="2">
+        <v>68</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" s="2">
+        <v>66</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V36" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="W36" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="2">
+        <v>72</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="2">
+        <v>77</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="2">
+        <v>69</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="2">
+        <v>70</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R37" s="2">
+        <v>71</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" s="2">
+        <v>73</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V37" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="W37" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="2">
+        <v>80</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="2">
+        <v>85</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="2">
+        <v>88</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="2">
+        <v>79</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="2">
+        <v>90</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="2">
+        <v>92</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R38" s="2">
+        <v>84</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" s="2">
+        <v>89</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V38" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="W38" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="2">
+        <v>85</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="2">
+        <v>80</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="2">
+        <v>79</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="2">
+        <v>84</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="2">
         <v>81</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="O39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="2">
+        <v>88</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" s="2">
+        <v>80</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T39" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V39" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W39" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="2">
+        <v>85</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="2">
+        <v>92</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="2">
+        <v>82</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="2">
+        <v>76</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R40" s="2">
+        <v>90</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T40" s="2">
+        <v>82</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V40" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="W40" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2">
+        <v>74</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2">
+        <v>70</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="2">
+        <v>79</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="2">
+        <v>72</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R41" s="2">
+        <v>74</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T41" s="2">
+        <v>68</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V41" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="W41" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2">
+        <v>85</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="2">
+        <v>86</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="2">
+        <v>88</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N42" s="2">
+        <v>85</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R42" s="2">
         <v>83</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11" s="2">
-        <v>80</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="S42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T42" s="2">
+        <v>80</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V42" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="W42" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="2">
+        <v>70</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="2">
+        <v>62</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="2">
+        <v>65</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="2">
+        <v>68</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="2">
+        <v>72</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P43" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43" s="2">
+        <v>68</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T43" s="2">
+        <v>65</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V43" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="W43" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="2">
+        <v>85</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="2">
+        <v>75</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="2">
+        <v>84</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="2">
+        <v>79</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" s="2">
+        <v>75</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T44" s="2">
+        <v>72</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V44" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="W44" s="2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="2">
+        <v>85</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="2">
+        <v>82</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="2">
+        <v>79</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N45" s="2">
+        <v>90</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P45" s="2">
+        <v>87</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R45" s="2">
+        <v>80</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="2">
+        <v>90</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V45" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W45" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="2">
+        <v>74</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="2">
+        <v>67</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="2">
+        <v>68</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="2">
+        <v>72</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="2">
+        <v>66</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R46" s="2">
+        <v>65</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="2">
+        <v>68</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V46" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="W46" s="2">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="2">
+        <v>80</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="2">
+        <v>75</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="2">
+        <v>78</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="2">
+        <v>82</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="2">
+        <v>90</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="2">
+        <v>89</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="2">
+        <v>80</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T47" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V47" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W47" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="2">
+        <v>83</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="2">
+        <v>85</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="2">
+        <v>81</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="2">
+        <v>79</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="2">
+        <v>90</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T48" s="2">
+        <v>88</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V48" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="W48" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="2">
+        <v>72</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2">
+        <v>68</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="2">
+        <v>76</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="2">
+        <v>82</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49" s="2">
+        <v>71</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R49" s="2">
+        <v>82</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T49" s="2">
+        <v>70</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V49" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="W49" s="2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="2">
+        <v>82</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2">
+        <v>74</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="2">
+        <v>79</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="2">
+        <v>76</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N50" s="2">
+        <v>84</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P50" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R50" s="2">
+        <v>74</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T50" s="2">
+        <v>75</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V50" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="W50" s="2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="2">
+        <v>75</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="2">
+        <v>70</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="2">
+        <v>76</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N51" s="2">
+        <v>80</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P51" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R51" s="2">
+        <v>78</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T51" s="2">
+        <v>74</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V51" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="W51" s="2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="2">
+        <v>68</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="2">
+        <v>70</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="2">
+        <v>78</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="2">
+        <v>75</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="2">
+        <v>80</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P52" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R52" s="2">
+        <v>73</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" s="2">
+        <v>70</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V52" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="W52" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="2">
+        <v>80</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="2">
+        <v>82</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N53" s="2">
+        <v>88</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P53" s="2">
+        <v>90</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R53" s="2">
+        <v>78</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T53" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V53" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="W53" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="2">
+        <v>82</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="2">
+        <v>81</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="2">
+        <v>79</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R54" s="2">
+        <v>75</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" s="2">
+        <v>83</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V54" s="2">
         <v>8.1</v>
       </c>
+      <c r="W54" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="2">
+        <v>74</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2">
+        <v>68</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="2">
+        <v>72</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="2">
+        <v>74</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="2">
+        <v>80</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R55" s="2">
+        <v>71</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T55" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V55" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="W55" s="2">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="2">
+        <v>82</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="2">
+        <v>85</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="2">
+        <v>83</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="2">
+        <v>86</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="2">
+        <v>80</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" s="2">
+        <v>88</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R56" s="2">
+        <v>82</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T56" s="2">
+        <v>90</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V56" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="W56" s="2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
